--- a/Personal_Fit_Model/nyc_empind.xlsx
+++ b/Personal_Fit_Model/nyc_empind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A099835-2084-47C4-B933-787EC0E4187D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0CD91D-5F55-4A02-B227-1CD29EA09532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD0BE431-59E5-429A-8A7D-D857A6127237}"/>
+    <workbookView xWindow="3072" yWindow="1008" windowWidth="18168" windowHeight="11952" xr2:uid="{CD0BE431-59E5-429A-8A7D-D857A6127237}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553DA43B-AA79-40E7-A0B4-B41B68F6900E}">
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
